--- a/doc/860-USD==AUG20-SEP05-2014-budget.xlsx
+++ b/doc/860-USD==AUG20-SEP05-2014-budget.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>BofA</t>
   </si>
@@ -523,7 +523,7 @@
   <dimension ref="E2:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5"/>
@@ -592,6 +592,9 @@
       </c>
       <c r="J8" t="s">
         <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="5:11">
